--- a/20057672.xlsx
+++ b/20057672.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="112">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -369,16 +369,16 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>FOO</t>
-  </si>
-  <si>
     <t>sun</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Urgent</t>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Major</t>
   </si>
 </sst>
 </file>
@@ -913,8 +913,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1043,7 @@
         <v>49</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>107</v>
@@ -1142,7 +1142,7 @@
         <v>106</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>51</v>
@@ -1170,7 +1170,7 @@
         <v>49</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>107</v>
@@ -1268,7 +1268,7 @@
         <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>54</v>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="6" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>57</v>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="6" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>59</v>
@@ -1401,7 +1401,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>107</v>
@@ -1423,7 +1423,7 @@
         <v>106</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>51</v>
@@ -1523,7 +1523,7 @@
         <v>60</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,9 +2109,11 @@
       <c r="B18" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="38" t="s">
+        <v>111</v>
+      </c>
       <c r="D18" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>60</v>
